--- a/Week 2/Week 2 Plan.xlsx
+++ b/Week 2/Week 2 Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCCE36C-9124-44CA-8506-0402E2A8F25A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713836C3-B157-40F5-8048-C62AF621BB2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>Arrays and Matrices</t>
   </si>
@@ -605,7 +605,7 @@
   <dimension ref="A1:Q1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -754,7 +754,9 @@
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -775,7 +777,9 @@
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -878,7 +882,9 @@
       <c r="A13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>

--- a/Week 2/Week 2 Plan.xlsx
+++ b/Week 2/Week 2 Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713836C3-B157-40F5-8048-C62AF621BB2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BE1DFE-C0AA-4E28-AE62-1E1CDB096B4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>Arrays and Matrices</t>
   </si>
@@ -605,7 +605,7 @@
   <dimension ref="A1:Q1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -710,7 +710,9 @@
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -800,7 +802,9 @@
       <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -821,7 +825,9 @@
       <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -842,7 +848,9 @@
       <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>

--- a/Week 2/Week 2 Plan.xlsx
+++ b/Week 2/Week 2 Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BE1DFE-C0AA-4E28-AE62-1E1CDB096B4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC393FCF-D8CB-4394-A596-B8CC56E14B83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>Arrays and Matrices</t>
   </si>
@@ -604,8 +604,8 @@
   </sheetPr>
   <dimension ref="A1:Q1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -913,7 +913,9 @@
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -934,7 +936,9 @@
       <c r="A15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>

--- a/Week 2/Week 2 Plan.xlsx
+++ b/Week 2/Week 2 Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC393FCF-D8CB-4394-A596-B8CC56E14B83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F7F944-2404-4E00-A556-5EA00C8BB65B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>Arrays and Matrices</t>
   </si>
@@ -604,8 +604,8 @@
   </sheetPr>
   <dimension ref="A1:Q1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -978,7 +978,9 @@
       <c r="A17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1020,7 +1022,9 @@
       <c r="A19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1041,7 +1045,9 @@
       <c r="A20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -1104,7 +1110,9 @@
       <c r="A23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1144,7 +1152,9 @@
       <c r="A25" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1207,7 +1217,9 @@
       <c r="A28" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -1249,7 +1261,9 @@
       <c r="A30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>

--- a/Week 2/Week 2 Plan.xlsx
+++ b/Week 2/Week 2 Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F7F944-2404-4E00-A556-5EA00C8BB65B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EE5887-3426-4ABB-8B8E-19F75D390086}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t>Arrays and Matrices</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -604,8 +607,8 @@
   </sheetPr>
   <dimension ref="A1:Q1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1001,7 +1004,9 @@
       <c r="A18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -1068,7 +1073,9 @@
       <c r="A21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -1089,7 +1096,9 @@
       <c r="A22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1196,7 +1205,9 @@
       <c r="A27" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="6"/>
@@ -1240,7 +1251,9 @@
       <c r="A29" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1284,7 +1297,9 @@
       <c r="A31" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="12"/>
+      <c r="B31" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -1305,7 +1320,9 @@
       <c r="A32" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="12"/>
+      <c r="B32" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -1326,7 +1343,9 @@
       <c r="A33" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -1389,7 +1408,9 @@
       <c r="A36" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="12"/>
+      <c r="B36" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>

--- a/Week 2/Week 2 Plan.xlsx
+++ b/Week 2/Week 2 Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EE5887-3426-4ABB-8B8E-19F75D390086}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3175C69-BCE4-4832-B84B-5D0B63B343E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>Arrays and Matrices</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iv/</t>
   </si>
 </sst>
 </file>
@@ -605,10 +608,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q1006"/>
+  <dimension ref="A1:Q1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1431,7 +1434,9 @@
       <c r="A37" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="12"/>
+      <c r="B37" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -1452,7 +1457,9 @@
       <c r="A38" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="12"/>
+      <c r="B38" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -1473,7 +1480,9 @@
       <c r="A39" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="12"/>
+      <c r="B39" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -1492,9 +1501,11 @@
     </row>
     <row r="40" spans="1:17" ht="15">
       <c r="A40" s="13" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
-      <c r="B40" s="12"/>
+      <c r="B40" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -1512,10 +1523,12 @@
       <c r="Q40" s="7"/>
     </row>
     <row r="41" spans="1:17" ht="15">
-      <c r="A41" s="15" t="s">
-        <v>37</v>
+      <c r="A41" s="13" t="s">
+        <v>36</v>
       </c>
-      <c r="B41" s="12"/>
+      <c r="B41" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -1533,8 +1546,8 @@
       <c r="Q41" s="7"/>
     </row>
     <row r="42" spans="1:17" ht="15">
-      <c r="A42" s="16" t="s">
-        <v>38</v>
+      <c r="A42" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="7"/>
@@ -1554,8 +1567,8 @@
       <c r="Q42" s="7"/>
     </row>
     <row r="43" spans="1:17" ht="15">
-      <c r="A43" s="1" t="s">
-        <v>39</v>
+      <c r="A43" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="7"/>
@@ -1576,7 +1589,7 @@
     </row>
     <row r="44" spans="1:17" ht="15">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="7"/>
@@ -1597,7 +1610,7 @@
     </row>
     <row r="45" spans="1:17" ht="15">
       <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="7"/>
@@ -1618,7 +1631,7 @@
     </row>
     <row r="46" spans="1:17" ht="15">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="7"/>
@@ -1639,7 +1652,7 @@
     </row>
     <row r="47" spans="1:17" ht="15">
       <c r="A47" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="7"/>
@@ -1660,7 +1673,7 @@
     </row>
     <row r="48" spans="1:17" ht="15">
       <c r="A48" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="7"/>
@@ -1681,7 +1694,7 @@
     </row>
     <row r="49" spans="1:17" ht="15">
       <c r="A49" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="7"/>
@@ -1702,7 +1715,7 @@
     </row>
     <row r="50" spans="1:17" ht="15">
       <c r="A50" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="7"/>
@@ -1723,7 +1736,7 @@
     </row>
     <row r="51" spans="1:17" ht="15">
       <c r="A51" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="7"/>
@@ -1744,7 +1757,7 @@
     </row>
     <row r="52" spans="1:17" ht="15">
       <c r="A52" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="7"/>
@@ -1765,7 +1778,7 @@
     </row>
     <row r="53" spans="1:17" ht="15">
       <c r="A53" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="7"/>
@@ -1785,8 +1798,8 @@
       <c r="Q53" s="7"/>
     </row>
     <row r="54" spans="1:17" ht="15">
-      <c r="A54" s="2" t="s">
-        <v>50</v>
+      <c r="A54" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="7"/>
@@ -1807,7 +1820,7 @@
     </row>
     <row r="55" spans="1:17" ht="15">
       <c r="A55" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="7"/>
@@ -1828,7 +1841,7 @@
     </row>
     <row r="56" spans="1:17" ht="15">
       <c r="A56" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="7"/>
@@ -1849,7 +1862,7 @@
     </row>
     <row r="57" spans="1:17" ht="15">
       <c r="A57" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="7"/>
@@ -1870,7 +1883,7 @@
     </row>
     <row r="58" spans="1:17" ht="15">
       <c r="A58" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="7"/>
@@ -1891,7 +1904,7 @@
     </row>
     <row r="59" spans="1:17" ht="15">
       <c r="A59" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="7"/>
@@ -1912,7 +1925,7 @@
     </row>
     <row r="60" spans="1:17" ht="15">
       <c r="A60" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="7"/>
@@ -1932,23 +1945,25 @@
       <c r="Q60" s="7"/>
     </row>
     <row r="61" spans="1:17" ht="15">
-      <c r="A61" s="17"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
+      <c r="A61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
     </row>
     <row r="62" spans="1:17" ht="15">
       <c r="A62" s="17"/>
@@ -2007,8 +2022,9 @@
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
     </row>
-    <row r="65" spans="2:17" ht="13.2">
-      <c r="B65" s="19"/>
+    <row r="65" spans="1:17" ht="15">
+      <c r="A65" s="17"/>
+      <c r="B65" s="18"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -2025,7 +2041,7 @@
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
     </row>
-    <row r="66" spans="2:17" ht="13.2">
+    <row r="66" spans="1:17" ht="13.2">
       <c r="B66" s="19"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2043,7 +2059,7 @@
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
     </row>
-    <row r="67" spans="2:17" ht="13.2">
+    <row r="67" spans="1:17" ht="13.2">
       <c r="B67" s="19"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2061,7 +2077,7 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
     </row>
-    <row r="68" spans="2:17" ht="13.2">
+    <row r="68" spans="1:17" ht="13.2">
       <c r="B68" s="19"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -2079,7 +2095,7 @@
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
     </row>
-    <row r="69" spans="2:17" ht="13.2">
+    <row r="69" spans="1:17" ht="13.2">
       <c r="B69" s="19"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -2097,7 +2113,7 @@
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
     </row>
-    <row r="70" spans="2:17" ht="13.2">
+    <row r="70" spans="1:17" ht="13.2">
       <c r="B70" s="19"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -2115,7 +2131,7 @@
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
     </row>
-    <row r="71" spans="2:17" ht="13.2">
+    <row r="71" spans="1:17" ht="13.2">
       <c r="B71" s="19"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2133,7 +2149,7 @@
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
     </row>
-    <row r="72" spans="2:17" ht="13.2">
+    <row r="72" spans="1:17" ht="13.2">
       <c r="B72" s="19"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -2151,7 +2167,7 @@
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
     </row>
-    <row r="73" spans="2:17" ht="13.2">
+    <row r="73" spans="1:17" ht="13.2">
       <c r="B73" s="19"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -2169,7 +2185,7 @@
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
     </row>
-    <row r="74" spans="2:17" ht="13.2">
+    <row r="74" spans="1:17" ht="13.2">
       <c r="B74" s="19"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -2187,7 +2203,7 @@
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
     </row>
-    <row r="75" spans="2:17" ht="13.2">
+    <row r="75" spans="1:17" ht="13.2">
       <c r="B75" s="19"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -2205,7 +2221,7 @@
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
     </row>
-    <row r="76" spans="2:17" ht="13.2">
+    <row r="76" spans="1:17" ht="13.2">
       <c r="B76" s="19"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -2223,7 +2239,7 @@
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
     </row>
-    <row r="77" spans="2:17" ht="13.2">
+    <row r="77" spans="1:17" ht="13.2">
       <c r="B77" s="19"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -2241,7 +2257,7 @@
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
     </row>
-    <row r="78" spans="2:17" ht="13.2">
+    <row r="78" spans="1:17" ht="13.2">
       <c r="B78" s="19"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -2259,7 +2275,7 @@
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
     </row>
-    <row r="79" spans="2:17" ht="13.2">
+    <row r="79" spans="1:17" ht="13.2">
       <c r="B79" s="19"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -2277,7 +2293,7 @@
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
     </row>
-    <row r="80" spans="2:17" ht="13.2">
+    <row r="80" spans="1:17" ht="13.2">
       <c r="B80" s="19"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -18962,6 +18978,24 @@
       <c r="O1006" s="3"/>
       <c r="P1006" s="3"/>
       <c r="Q1006" s="3"/>
+    </row>
+    <row r="1007" spans="2:17" ht="13.2">
+      <c r="B1007" s="19"/>
+      <c r="C1007" s="3"/>
+      <c r="D1007" s="3"/>
+      <c r="E1007" s="3"/>
+      <c r="F1007" s="3"/>
+      <c r="G1007" s="3"/>
+      <c r="H1007" s="3"/>
+      <c r="I1007" s="3"/>
+      <c r="J1007" s="3"/>
+      <c r="K1007" s="3"/>
+      <c r="L1007" s="3"/>
+      <c r="M1007" s="3"/>
+      <c r="N1007" s="3"/>
+      <c r="O1007" s="3"/>
+      <c r="P1007" s="3"/>
+      <c r="Q1007" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -18998,26 +19032,26 @@
     <hyperlink ref="A36" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
     <hyperlink ref="A37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="A38" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="A39" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="A40" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="A43" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="A44" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="A45" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="A46" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="A47" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="A48" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="A49" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="A50" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="A51" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="A52" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="A53" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="A54" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="A55" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="A56" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="A57" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="A58" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="A59" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="A60" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A41" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A44" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A45" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A46" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A47" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A48" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A49" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A50" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A51" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A52" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A53" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A54" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A55" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A56" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A57" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A58" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A59" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A60" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A61" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A39" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>

--- a/Week 2/Week 2 Plan.xlsx
+++ b/Week 2/Week 2 Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3175C69-BCE4-4832-B84B-5D0B63B343E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F11BBF3-AA46-4262-88A4-70866B324C78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>Arrays and Matrices</t>
   </si>
@@ -610,8 +610,8 @@
   </sheetPr>
   <dimension ref="A1:Q1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1187,7 +1187,9 @@
       <c r="A26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
